--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_8.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179962.8662720635</v>
+        <v>177854.7080031852</v>
       </c>
     </row>
     <row r="7">
@@ -26320,25 +26320,25 @@
         <v>43002.96221257855</v>
       </c>
       <c r="E2" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="F2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="G2" t="n">
         <v>43002.96221257855</v>
       </c>
       <c r="H2" t="n">
-        <v>43002.96221257858</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="I2" t="n">
+        <v>43002.96221257856</v>
+      </c>
+      <c r="J2" t="n">
         <v>43002.96221257855</v>
       </c>
-      <c r="J2" t="n">
-        <v>43002.96221257856</v>
-      </c>
       <c r="K2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="L2" t="n">
         <v>43002.96221257856</v>
@@ -26347,10 +26347,10 @@
         <v>43002.96221257856</v>
       </c>
       <c r="N2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="O2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="P2" t="n">
         <v>43002.96221257855</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="E4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="F4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="G4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="H4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="I4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="J4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="K4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="L4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="M4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="N4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="O4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="P4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1123.407858851759</v>
+        <v>-1375.378340566087</v>
       </c>
       <c r="C6" t="n">
-        <v>-1123.407858851759</v>
+        <v>-1375.378340566094</v>
       </c>
       <c r="D6" t="n">
-        <v>-1123.407858851766</v>
+        <v>-1375.378340566087</v>
       </c>
       <c r="E6" t="n">
-        <v>32504.19214114825</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="F6" t="n">
-        <v>32504.19214114825</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="G6" t="n">
-        <v>32504.19214114824</v>
+        <v>32252.2216594339</v>
       </c>
       <c r="H6" t="n">
-        <v>32504.19214114826</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="I6" t="n">
-        <v>32504.19214114824</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="J6" t="n">
-        <v>32504.19214114825</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="K6" t="n">
-        <v>32504.19214114825</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="L6" t="n">
-        <v>32504.19214114825</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="M6" t="n">
-        <v>32504.19214114825</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="N6" t="n">
-        <v>32504.19214114825</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="O6" t="n">
-        <v>32504.19214114825</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="P6" t="n">
-        <v>32504.19214114824</v>
+        <v>32252.22165943391</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26332,19 +26334,19 @@
         <v>43002.96221257855</v>
       </c>
       <c r="I2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="J2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="K2" t="n">
         <v>43002.96221257855</v>
       </c>
       <c r="L2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="M2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="N2" t="n">
         <v>43002.96221257855</v>
@@ -26522,40 +26524,40 @@
         <v>-1375.378340566087</v>
       </c>
       <c r="C6" t="n">
-        <v>-1375.378340566094</v>
+        <v>-1375.378340566087</v>
       </c>
       <c r="D6" t="n">
         <v>-1375.378340566087</v>
       </c>
       <c r="E6" t="n">
+        <v>32252.2216594339</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32252.2216594339</v>
+      </c>
+      <c r="G6" t="n">
         <v>32252.22165943391</v>
-      </c>
-      <c r="F6" t="n">
-        <v>32252.22165943391</v>
-      </c>
-      <c r="G6" t="n">
-        <v>32252.2216594339</v>
       </c>
       <c r="H6" t="n">
         <v>32252.22165943391</v>
       </c>
       <c r="I6" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.2216594339</v>
       </c>
       <c r="J6" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943393</v>
       </c>
       <c r="K6" t="n">
         <v>32252.22165943391</v>
       </c>
       <c r="L6" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="M6" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="N6" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.2216594339</v>
       </c>
       <c r="O6" t="n">
         <v>32252.22165943391</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177854.7080031852</v>
+        <v>51093.75413392024</v>
       </c>
     </row>
     <row r="7">
@@ -26316,13 +26316,13 @@
         <v>43002.96221257855</v>
       </c>
       <c r="C2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="D2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="E2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="F2" t="n">
         <v>43002.96221257855</v>
@@ -26334,16 +26334,16 @@
         <v>43002.96221257855</v>
       </c>
       <c r="I2" t="n">
+        <v>43002.96221257856</v>
+      </c>
+      <c r="J2" t="n">
         <v>43002.96221257855</v>
       </c>
-      <c r="J2" t="n">
-        <v>43002.96221257857</v>
-      </c>
       <c r="K2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="L2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="M2" t="n">
         <v>43002.96221257855</v>
@@ -26352,7 +26352,7 @@
         <v>43002.96221257855</v>
       </c>
       <c r="O2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="P2" t="n">
         <v>43002.96221257855</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1375.378340566087</v>
+        <v>-16526.05231060085</v>
       </c>
       <c r="C6" t="n">
-        <v>-1375.378340566087</v>
+        <v>-16526.05231060084</v>
       </c>
       <c r="D6" t="n">
-        <v>-1375.378340566087</v>
+        <v>-16526.05231060084</v>
       </c>
       <c r="E6" t="n">
-        <v>32252.2216594339</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="F6" t="n">
-        <v>32252.2216594339</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="G6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="H6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="I6" t="n">
-        <v>32252.2216594339</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="J6" t="n">
-        <v>32252.22165943393</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="K6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="L6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="M6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="N6" t="n">
-        <v>32252.2216594339</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="O6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="P6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51093.75413392024</v>
+        <v>165178.6126162588</v>
       </c>
     </row>
     <row r="7">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>43002.96221257856</v>
+      </c>
+      <c r="C2" t="n">
         <v>43002.96221257855</v>
       </c>
-      <c r="C2" t="n">
-        <v>43002.96221257856</v>
-      </c>
       <c r="D2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="E2" t="n">
         <v>43002.96221257856</v>
       </c>
       <c r="F2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="G2" t="n">
         <v>43002.96221257855</v>
       </c>
       <c r="H2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="I2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="J2" t="n">
         <v>43002.96221257855</v>
       </c>
       <c r="K2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="L2" t="n">
         <v>43002.96221257856</v>
@@ -26355,7 +26355,7 @@
         <v>43002.96221257856</v>
       </c>
       <c r="P2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16526.05231060085</v>
+        <v>-2890.445737569556</v>
       </c>
       <c r="C6" t="n">
-        <v>-16526.05231060084</v>
+        <v>-2890.445737569563</v>
       </c>
       <c r="D6" t="n">
-        <v>-16526.05231060084</v>
+        <v>-2890.445737569549</v>
       </c>
       <c r="E6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="F6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243045</v>
       </c>
       <c r="G6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="H6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="I6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243045</v>
       </c>
       <c r="J6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="K6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="L6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="M6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="N6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="O6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="P6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
     </row>
   </sheetData>
